--- a/속성관계개체정의서 통합.xlsx
+++ b/속성관계개체정의서 통합.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00. project\최종포트폴리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개체정의서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="133">
   <si>
     <t>개체정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,10 @@
   </si>
   <si>
     <t>댓글번호, 게시글의 번호, 입양홍보 게시글의 번호, 작성자, 댓글 내용, 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,121 +913,121 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,7 +1312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1321,24 +1325,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1352,7 +1356,7 @@
       <c r="C5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="66" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1364,7 +1368,7 @@
       <c r="C6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="105" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1376,7 +1380,7 @@
       <c r="C7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="56.25" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -1388,7 +1392,7 @@
       <c r="C8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="69" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1400,7 +1404,7 @@
       <c r="C9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" s="3" t="s">
@@ -1421,491 +1425,491 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1"/>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="23" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="32" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A48" s="23"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="23.45" customHeight="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="23.45" customHeight="1" thickBot="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="18" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A5:A12"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A13:A26"/>
     <mergeCell ref="A27:A39"/>
     <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A5:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,108 +1932,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.45" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
